--- a/forecast_app/tests/cdc-csv-predictions/EW01-2011-ReichLab_kde_US_National-calc.xlsx
+++ b/forecast_app/tests/cdc-csv-predictions/EW01-2011-ReichLab_kde_US_National-calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cornell/IdeaProjects/forecast-repository/forecast_app/tests/cdc-csv-predictions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C47F37-DC3E-1049-BC4C-081E16E0E2A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AECB88F-0B58-3048-90D3-1DD4F53C0F4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21080" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="460" windowWidth="22740" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EW01-2011-ReichLab_kde_US_Natio" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="39">
   <si>
     <t>Location</t>
   </si>
@@ -64,31 +64,79 @@
     <t>none</t>
   </si>
   <si>
-    <t>EW01-2011 season start year:</t>
-  </si>
-  <si>
-    <t>1-p_none (denominator):</t>
-  </si>
-  <si>
-    <t>season_onset_binary prob:</t>
-  </si>
-  <si>
-    <t>""</t>
-  </si>
-  <si>
-    <t>scaled value</t>
-  </si>
-  <si>
-    <t>&lt;- sum</t>
-  </si>
-  <si>
-    <t>^- p_none</t>
-  </si>
-  <si>
-    <t>EW_year</t>
-  </si>
-  <si>
     <t>Monday yyyy-mm-dd</t>
+  </si>
+  <si>
+    <t>season_start_year: 2011. EW01 &lt; 30 -&gt; EW01 2012</t>
+  </si>
+  <si>
+    <t>end Sat</t>
+  </si>
+  <si>
+    <t>act EW year (30)</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>0.0619258378643716</t>
+  </si>
+  <si>
+    <t>0.00718572663634789</t>
+  </si>
+  <si>
+    <t>0.000197627330642734</t>
+  </si>
+  <si>
+    <t>0.000100570395841273</t>
+  </si>
+  <si>
+    <t>0.00757395437555373</t>
+  </si>
+  <si>
+    <t>0.0585288451463205</t>
+  </si>
+  <si>
+    <t>0.00737984050595081</t>
+  </si>
+  <si>
+    <t>0.00922392226717856</t>
+  </si>
+  <si>
+    <t>0.0584317882115191</t>
+  </si>
+  <si>
+    <t>0.0404762552732489</t>
+  </si>
+  <si>
+    <t>0.26118372501177</t>
+  </si>
+  <si>
+    <t>0.219061015307936</t>
+  </si>
+  <si>
+    <t>0.0825019080422813</t>
+  </si>
+  <si>
+    <t>0.00747689744075227</t>
+  </si>
+  <si>
+    <t>0.00699161276674497</t>
+  </si>
+  <si>
+    <t>0.0534818845366446</t>
+  </si>
+  <si>
+    <t>0.0151443952900677</t>
+  </si>
+  <si>
+    <t>0.0578494466027103</t>
+  </si>
+  <si>
+    <t>0.0086415806583698</t>
+  </si>
+  <si>
+    <t>0.03523518079397</t>
   </si>
 </sst>
 </file>
@@ -98,7 +146,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,14 +277,6 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -583,13 +623,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -945,23 +990,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -977,23 +1023,23 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1009,14 +1055,24 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2">
-        <v>50</v>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>2011</v>
+      </c>
+      <c r="I2" s="2">
+        <v>40894</v>
+      </c>
+      <c r="J2" s="5">
+        <f t="shared" ref="J2" si="0">I2-5</f>
+        <v>40889</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1032,25 +1088,24 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>40</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>41</v>
       </c>
-      <c r="G3">
-        <v>6.19258378643716E-2</v>
-      </c>
-      <c r="H3" s="2">
-        <f>G3/$G$38</f>
-        <v>6.4187495886649917E-2</v>
-      </c>
-      <c r="I3">
-        <f>$G$40</f>
-        <v>2010</v>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>2011</v>
+      </c>
+      <c r="I3" s="2">
+        <v>40824</v>
       </c>
       <c r="J3" s="5">
-        <v>40455</v>
+        <f>I3-5</f>
+        <v>40819</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1066,25 +1121,24 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>41</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>42</v>
       </c>
-      <c r="G4">
-        <v>7.1857266363478901E-3</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" ref="H4:H35" si="0">G4/$G$38</f>
-        <v>7.4481640429856361E-3</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I15" si="1">$G$40</f>
-        <v>2010</v>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>2011</v>
+      </c>
+      <c r="I4" s="2">
+        <v>40831</v>
       </c>
       <c r="J4" s="5">
-        <v>40462</v>
+        <f>I4-5</f>
+        <v>40826</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1100,25 +1154,24 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>42</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>43</v>
       </c>
-      <c r="G5">
-        <v>1.97627330642734E-4</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="0"/>
-        <v>2.0484508421998105E-4</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>2010</v>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <v>2011</v>
+      </c>
+      <c r="I5" s="2">
+        <v>40838</v>
       </c>
       <c r="J5" s="5">
-        <v>40469</v>
+        <f t="shared" ref="J5:J35" si="1">I5-5</f>
+        <v>40833</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1134,25 +1187,24 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>43</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>44</v>
       </c>
-      <c r="G6">
-        <v>1.00570395841273E-4</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="0"/>
-        <v>1.04243432014902E-4</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>2010</v>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6">
+        <v>2011</v>
+      </c>
+      <c r="I6" s="2">
+        <v>40845</v>
       </c>
       <c r="J6" s="5">
-        <v>40476</v>
+        <f t="shared" si="1"/>
+        <v>40840</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1168,25 +1220,24 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>44</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>45</v>
       </c>
-      <c r="G7">
-        <v>7.5739543755537304E-3</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="0"/>
-        <v>7.8505706518059489E-3</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>2010</v>
+      <c r="G7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>2011</v>
+      </c>
+      <c r="I7" s="2">
+        <v>40852</v>
       </c>
       <c r="J7" s="5">
-        <v>40483</v>
+        <f t="shared" si="1"/>
+        <v>40847</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1202,25 +1253,24 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>45</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>46</v>
       </c>
-      <c r="G8">
-        <v>5.85288451463205E-2</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="0"/>
-        <v>6.0666438059472187E-2</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>2010</v>
+      <c r="G8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>2011</v>
+      </c>
+      <c r="I8" s="2">
+        <v>40859</v>
       </c>
       <c r="J8" s="5">
-        <v>40490</v>
+        <f t="shared" si="1"/>
+        <v>40854</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1236,25 +1286,24 @@
       <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>46</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>47</v>
       </c>
-      <c r="G9">
-        <v>7.3798405059508103E-3</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="0"/>
-        <v>7.6493673473957916E-3</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>2010</v>
+      <c r="G9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <v>2011</v>
+      </c>
+      <c r="I9" s="2">
+        <v>40866</v>
       </c>
       <c r="J9" s="5">
-        <v>40497</v>
+        <f t="shared" si="1"/>
+        <v>40861</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1270,25 +1319,24 @@
       <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>47</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <v>48</v>
       </c>
-      <c r="G10">
-        <v>9.2239222671785595E-3</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="0"/>
-        <v>9.5607987392922842E-3</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>2010</v>
+      <c r="G10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10">
+        <v>2011</v>
+      </c>
+      <c r="I10" s="2">
+        <v>40873</v>
       </c>
       <c r="J10" s="5">
-        <v>40504</v>
+        <f t="shared" si="1"/>
+        <v>40868</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1304,25 +1352,24 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>48</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <v>49</v>
       </c>
-      <c r="G11">
-        <v>5.8431788211519099E-2</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="0"/>
-        <v>6.0565836407267169E-2</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>2010</v>
+      <c r="G11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11">
+        <v>2011</v>
+      </c>
+      <c r="I11" s="2">
+        <v>40880</v>
       </c>
       <c r="J11" s="5">
-        <v>40511</v>
+        <f t="shared" si="1"/>
+        <v>40875</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1338,25 +1385,24 @@
       <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>49</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
         <v>50</v>
       </c>
-      <c r="G12">
-        <v>4.0476255273248898E-2</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="0"/>
-        <v>4.1954530749327631E-2</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>2010</v>
+      <c r="G12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12">
+        <v>2011</v>
+      </c>
+      <c r="I12" s="2">
+        <v>40887</v>
       </c>
       <c r="J12" s="5">
-        <v>40518</v>
+        <f t="shared" si="1"/>
+        <v>40882</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1372,25 +1418,24 @@
       <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <v>50</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="6">
         <v>51</v>
       </c>
-      <c r="G13">
-        <v>0.26118372501177001</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.27072268786367615</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>2010</v>
+      <c r="G13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13">
+        <v>2011</v>
+      </c>
+      <c r="I13" s="2">
+        <v>40894</v>
       </c>
       <c r="J13" s="5">
-        <v>40525</v>
+        <f t="shared" si="1"/>
+        <v>40889</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1406,25 +1451,24 @@
       <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <v>51</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="6">
         <v>52</v>
       </c>
-      <c r="G14">
-        <v>0.21906101530793601</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.22706157080667191</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>2010</v>
+      <c r="G14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <v>2011</v>
+      </c>
+      <c r="I14" s="2">
+        <v>40901</v>
       </c>
       <c r="J14" s="5">
-        <v>40532</v>
+        <f t="shared" si="1"/>
+        <v>40896</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1440,25 +1484,24 @@
       <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <v>52</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="6">
         <v>53</v>
       </c>
-      <c r="G15">
-        <v>8.2501908042281302E-2</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="0"/>
-        <v>8.5515046154126653E-2</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>2010</v>
+      <c r="G15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15">
+        <v>2011</v>
+      </c>
+      <c r="I15" s="2">
+        <v>40908</v>
       </c>
       <c r="J15" s="5">
-        <v>40539</v>
+        <f t="shared" si="1"/>
+        <v>40903</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1474,25 +1517,24 @@
       <c r="D16" t="s">
         <v>10</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <v>1</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="6">
         <v>2</v>
       </c>
-      <c r="G16">
-        <v>7.4768974407522703E-3</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="0"/>
-        <v>7.7499689996008703E-3</v>
-      </c>
-      <c r="I16">
-        <f>$G$40 + 1</f>
-        <v>2011</v>
+      <c r="G16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16">
+        <v>2012</v>
+      </c>
+      <c r="I16" s="2">
+        <v>40915</v>
       </c>
       <c r="J16" s="5">
-        <v>40546</v>
+        <f t="shared" si="1"/>
+        <v>40910</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1508,25 +1550,24 @@
       <c r="D17" t="s">
         <v>10</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <v>2</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="6">
         <v>3</v>
       </c>
-      <c r="G17">
-        <v>6.9916127667449699E-3</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="0"/>
-        <v>7.2469607385754796E-3</v>
-      </c>
-      <c r="I17">
-        <f t="shared" ref="I17:I35" si="2">$G$40 + 1</f>
-        <v>2011</v>
+      <c r="G17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17">
+        <v>2012</v>
+      </c>
+      <c r="I17" s="2">
+        <v>40922</v>
       </c>
       <c r="J17" s="5">
-        <v>40553</v>
+        <f t="shared" si="1"/>
+        <v>40917</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1542,25 +1583,24 @@
       <c r="D18" t="s">
         <v>10</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="6">
         <v>3</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="6">
         <v>4</v>
       </c>
-      <c r="G18">
-        <v>5.3481884536644597E-2</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="0"/>
-        <v>5.5435152144808146E-2</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="2"/>
-        <v>2011</v>
+      <c r="G18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18">
+        <v>2012</v>
+      </c>
+      <c r="I18" s="2">
+        <v>40929</v>
       </c>
       <c r="J18" s="5">
-        <v>40560</v>
+        <f t="shared" si="1"/>
+        <v>40924</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1576,25 +1616,24 @@
       <c r="D19" t="s">
         <v>10</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="6">
         <v>4</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="6">
         <v>5</v>
       </c>
-      <c r="G19">
-        <v>1.51443952900677E-2</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5697499523802127E-2</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="2"/>
-        <v>2011</v>
+      <c r="G19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19">
+        <v>2012</v>
+      </c>
+      <c r="I19" s="2">
+        <v>40936</v>
       </c>
       <c r="J19" s="5">
-        <v>40567</v>
+        <f t="shared" si="1"/>
+        <v>40931</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1610,25 +1649,24 @@
       <c r="D20" t="s">
         <v>10</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="6">
         <v>5</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="6">
         <v>6</v>
       </c>
-      <c r="G20">
-        <v>5.7849446602710297E-2</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="0"/>
-        <v>5.9962226494036659E-2</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="2"/>
-        <v>2011</v>
+      <c r="G20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20">
+        <v>2012</v>
+      </c>
+      <c r="I20" s="2">
+        <v>40943</v>
       </c>
       <c r="J20" s="5">
-        <v>40574</v>
+        <f t="shared" si="1"/>
+        <v>40938</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1644,25 +1682,24 @@
       <c r="D21" t="s">
         <v>10</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
         <v>6</v>
       </c>
-      <c r="F21">
-        <v>7</v>
-      </c>
-      <c r="G21">
-        <v>8.6415806583698008E-3</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="0"/>
-        <v>8.9571888260618175E-3</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="2"/>
-        <v>2011</v>
+      <c r="F21" s="6">
+        <v>7</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21">
+        <v>2012</v>
+      </c>
+      <c r="I21" s="2">
+        <v>40950</v>
       </c>
       <c r="J21" s="5">
-        <v>40581</v>
+        <f t="shared" si="1"/>
+        <v>40945</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1678,25 +1715,24 @@
       <c r="D22" t="s">
         <v>10</v>
       </c>
-      <c r="E22">
-        <v>7</v>
-      </c>
-      <c r="F22">
-        <v>8</v>
-      </c>
-      <c r="G22">
-        <v>1.00570395841273E-4</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="0"/>
-        <v>1.04243432014902E-4</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="2"/>
-        <v>2011</v>
+      <c r="E22" s="6">
+        <v>7</v>
+      </c>
+      <c r="F22" s="6">
+        <v>8</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22">
+        <v>2012</v>
+      </c>
+      <c r="I22" s="2">
+        <v>40957</v>
       </c>
       <c r="J22" s="5">
-        <v>40588</v>
+        <f t="shared" si="1"/>
+        <v>40952</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1712,25 +1748,24 @@
       <c r="D23" t="s">
         <v>10</v>
       </c>
-      <c r="E23">
-        <v>8</v>
-      </c>
-      <c r="F23">
+      <c r="E23" s="6">
+        <v>8</v>
+      </c>
+      <c r="F23" s="6">
         <v>9</v>
       </c>
-      <c r="G23">
-        <v>1.00570395841273E-4</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="0"/>
-        <v>1.04243432014902E-4</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="2"/>
-        <v>2011</v>
+      <c r="G23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23">
+        <v>2012</v>
+      </c>
+      <c r="I23" s="2">
+        <v>40964</v>
       </c>
       <c r="J23" s="5">
-        <v>40595</v>
+        <f t="shared" si="1"/>
+        <v>40959</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1746,25 +1781,24 @@
       <c r="D24" t="s">
         <v>10</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="6">
         <v>9</v>
       </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>1.00570395841273E-4</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="0"/>
-        <v>1.04243432014902E-4</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="2"/>
-        <v>2011</v>
+      <c r="F24" s="6">
+        <v>10</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24">
+        <v>2012</v>
+      </c>
+      <c r="I24" s="2">
+        <v>40971</v>
       </c>
       <c r="J24" s="5">
-        <v>40602</v>
+        <f t="shared" si="1"/>
+        <v>40966</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1780,25 +1814,24 @@
       <c r="D25" t="s">
         <v>10</v>
       </c>
-      <c r="E25">
-        <v>10</v>
-      </c>
-      <c r="F25">
+      <c r="E25" s="6">
+        <v>10</v>
+      </c>
+      <c r="F25" s="6">
         <v>11</v>
       </c>
-      <c r="G25">
-        <v>1.00570395841273E-4</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="0"/>
-        <v>1.04243432014902E-4</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="2"/>
-        <v>2011</v>
+      <c r="G25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25">
+        <v>2012</v>
+      </c>
+      <c r="I25" s="2">
+        <v>40978</v>
       </c>
       <c r="J25" s="5">
-        <v>40609</v>
+        <f t="shared" si="1"/>
+        <v>40973</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1814,25 +1847,24 @@
       <c r="D26" t="s">
         <v>10</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="6">
         <v>11</v>
       </c>
-      <c r="F26">
-        <v>12</v>
-      </c>
-      <c r="G26">
-        <v>1.00570395841273E-4</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" si="0"/>
-        <v>1.04243432014902E-4</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="2"/>
-        <v>2011</v>
+      <c r="F26" s="6">
+        <v>12</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26">
+        <v>2012</v>
+      </c>
+      <c r="I26" s="2">
+        <v>40985</v>
       </c>
       <c r="J26" s="5">
-        <v>40616</v>
+        <f t="shared" si="1"/>
+        <v>40980</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1848,25 +1880,24 @@
       <c r="D27" t="s">
         <v>10</v>
       </c>
-      <c r="E27">
-        <v>12</v>
-      </c>
-      <c r="F27">
+      <c r="E27" s="6">
+        <v>12</v>
+      </c>
+      <c r="F27" s="6">
         <v>13</v>
       </c>
-      <c r="G27">
-        <v>1.00570395841273E-4</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" si="0"/>
-        <v>1.04243432014902E-4</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="2"/>
-        <v>2011</v>
+      <c r="G27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27">
+        <v>2012</v>
+      </c>
+      <c r="I27" s="2">
+        <v>40992</v>
       </c>
       <c r="J27" s="5">
-        <v>40623</v>
+        <f t="shared" si="1"/>
+        <v>40987</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1882,25 +1913,24 @@
       <c r="D28" t="s">
         <v>10</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="6">
         <v>13</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="6">
         <v>14</v>
       </c>
-      <c r="G28">
-        <v>1.00570395841273E-4</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" si="0"/>
-        <v>1.04243432014902E-4</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="2"/>
-        <v>2011</v>
+      <c r="G28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28">
+        <v>2012</v>
+      </c>
+      <c r="I28" s="2">
+        <v>40999</v>
       </c>
       <c r="J28" s="5">
-        <v>40630</v>
+        <f t="shared" si="1"/>
+        <v>40994</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1916,25 +1946,24 @@
       <c r="D29" t="s">
         <v>10</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="6">
         <v>14</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="6">
         <v>15</v>
       </c>
-      <c r="G29">
-        <v>1.00570395841273E-4</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" si="0"/>
-        <v>1.04243432014902E-4</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="2"/>
-        <v>2011</v>
+      <c r="G29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29">
+        <v>2012</v>
+      </c>
+      <c r="I29" s="2">
+        <v>41006</v>
       </c>
       <c r="J29" s="5">
-        <v>40637</v>
+        <f t="shared" si="1"/>
+        <v>41001</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1950,25 +1979,24 @@
       <c r="D30" t="s">
         <v>10</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="6">
         <v>15</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="6">
         <v>16</v>
       </c>
-      <c r="G30">
-        <v>1.00570395841273E-4</v>
-      </c>
-      <c r="H30" s="2">
-        <f t="shared" si="0"/>
-        <v>1.04243432014902E-4</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="2"/>
-        <v>2011</v>
+      <c r="G30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30">
+        <v>2012</v>
+      </c>
+      <c r="I30" s="2">
+        <v>41013</v>
       </c>
       <c r="J30" s="5">
-        <v>40644</v>
+        <f t="shared" si="1"/>
+        <v>41008</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1984,25 +2012,24 @@
       <c r="D31" t="s">
         <v>10</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="6">
         <v>16</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="6">
         <v>17</v>
       </c>
-      <c r="G31">
-        <v>1.00570395841273E-4</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" si="0"/>
-        <v>1.04243432014902E-4</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="2"/>
-        <v>2011</v>
+      <c r="G31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31">
+        <v>2012</v>
+      </c>
+      <c r="I31" s="2">
+        <v>41020</v>
       </c>
       <c r="J31" s="5">
-        <v>40651</v>
+        <f t="shared" si="1"/>
+        <v>41015</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2018,25 +2045,24 @@
       <c r="D32" t="s">
         <v>10</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="6">
         <v>17</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="6">
         <v>18</v>
       </c>
-      <c r="G32">
-        <v>1.00570395841273E-4</v>
-      </c>
-      <c r="H32" s="2">
-        <f t="shared" si="0"/>
-        <v>1.04243432014902E-4</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="2"/>
-        <v>2011</v>
+      <c r="G32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32">
+        <v>2012</v>
+      </c>
+      <c r="I32" s="2">
+        <v>41027</v>
       </c>
       <c r="J32" s="5">
-        <v>40658</v>
+        <f t="shared" si="1"/>
+        <v>41022</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2052,25 +2078,24 @@
       <c r="D33" t="s">
         <v>10</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="6">
         <v>18</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="6">
         <v>19</v>
       </c>
-      <c r="G33">
-        <v>1.00570395841273E-4</v>
-      </c>
-      <c r="H33" s="2">
-        <f t="shared" si="0"/>
-        <v>1.04243432014902E-4</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="2"/>
-        <v>2011</v>
+      <c r="G33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33">
+        <v>2012</v>
+      </c>
+      <c r="I33" s="2">
+        <v>41034</v>
       </c>
       <c r="J33" s="5">
-        <v>40665</v>
+        <f t="shared" si="1"/>
+        <v>41029</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2086,25 +2111,24 @@
       <c r="D34" t="s">
         <v>10</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="6">
         <v>19</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="6">
         <v>20</v>
       </c>
-      <c r="G34">
-        <v>1.00570395841273E-4</v>
-      </c>
-      <c r="H34" s="2">
-        <f t="shared" si="0"/>
-        <v>1.04243432014902E-4</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="2"/>
-        <v>2011</v>
+      <c r="G34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34">
+        <v>2012</v>
+      </c>
+      <c r="I34" s="2">
+        <v>41041</v>
       </c>
       <c r="J34" s="5">
-        <v>40672</v>
+        <f t="shared" si="1"/>
+        <v>41036</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2120,25 +2144,24 @@
       <c r="D35" t="s">
         <v>10</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="6">
         <v>20</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="6">
         <v>21</v>
       </c>
-      <c r="G35">
-        <v>1.00570395841273E-4</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" si="0"/>
-        <v>1.04243432014902E-4</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="2"/>
-        <v>2011</v>
+      <c r="G35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35">
+        <v>2012</v>
+      </c>
+      <c r="I35" s="2">
+        <v>41048</v>
       </c>
       <c r="J35" s="5">
-        <v>40679</v>
+        <f t="shared" si="1"/>
+        <v>41043</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2154,52 +2177,22 @@
       <c r="D36" t="s">
         <v>10</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G36">
-        <v>3.5235180793969999E-2</v>
-      </c>
-      <c r="H36" s="2">
-        <f>SUM(H3:H35)</f>
-        <v>0.99999999999999944</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="G37" s="1" t="s">
-        <v>20</v>
+      <c r="G36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="E38" s="1" t="s">
+      <c r="A38" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G38" s="2">
-        <f>1-G36</f>
-        <v>0.96476481920602997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="E39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="E40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="2">
-        <v>2010</v>
       </c>
     </row>
   </sheetData>
